--- a/output_5_jobs.xlsx
+++ b/output_5_jobs.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A1571-B25E-4397-BC24-E474FC5E51B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,240 +360,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1.188873984593837</v>
-      </c>
-      <c r="B1" t="n">
-        <v>3.733881487687539</v>
-      </c>
-      <c r="C1" t="n">
-        <v>13.38285493325651</v>
-      </c>
-      <c r="D1" t="n">
-        <v>56.70068522078716</v>
-      </c>
-      <c r="E1" t="n">
-        <v>20.98140214511712</v>
-      </c>
-      <c r="F1" t="n">
-        <v>20.91851317572501</v>
-      </c>
-      <c r="G1" t="n">
-        <v>11.35059515604307</v>
-      </c>
-      <c r="H1" t="n">
-        <v>1.188873984593837</v>
-      </c>
-      <c r="I1" t="n">
-        <v>3.733881487687539</v>
-      </c>
-      <c r="J1" t="n">
-        <v>21.2462102321757</v>
-      </c>
-      <c r="K1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L1" t="n">
-        <v>25</v>
-      </c>
-      <c r="M1" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="N1" t="n">
-        <v>22.5558675305202</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.1295</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.348734558359925</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.81128912840678</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.22542397000232</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.65550683488696</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.53983534563123</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9.840968745959739</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.1295</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.348734558359925</v>
-      </c>
-      <c r="J2" t="n">
-        <v>19.43533810566648</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20.00597024595827</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.1295</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.75111488141921</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12.05052457819027</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.09204494333552</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16.30894614329078</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17.33305170223417</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.745086512363224</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.1295</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.75111488141921</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20.20308905888947</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20.83333333333333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M3" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="N3" t="n">
-        <v>19.73049794708538</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.16675412345092</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.455766702313615</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.31430222155947</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.1079620765765</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.55558247753791</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.6489771104272</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9.479945205533458</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.16675412345092</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.455766702313615</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19.64274479798473</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18.5513119808933</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.139780476190476</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.457829633554908</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.96442692112571</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.33779679762183</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16.01375272262474</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17.4813622542212</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.968900777190061</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.139780476190476</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.457829633554908</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19.94369585799687</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="L5" t="n">
-        <v>20</v>
-      </c>
-      <c r="M5" t="n">
-        <v>20.40816326530612</v>
-      </c>
-      <c r="N5" t="n">
-        <v>19.72041653264019</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0.57235000000000003</v>
+      </c>
+      <c r="B1">
+        <v>0.97206999999999999</v>
+      </c>
+      <c r="C1">
+        <v>0.70742000000000005</v>
+      </c>
+      <c r="D1">
+        <v>26.83484</v>
+      </c>
+      <c r="E1">
+        <v>11.939640000000001</v>
+      </c>
+      <c r="F1">
+        <v>13.08541</v>
+      </c>
+      <c r="G1">
+        <v>6.7657800000000003</v>
+      </c>
+      <c r="H1">
+        <v>1.01708</v>
+      </c>
+      <c r="I1">
+        <v>1.2940799999999999</v>
+      </c>
+      <c r="J1">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="K1">
+        <v>28.57142</v>
+      </c>
+      <c r="L1">
+        <v>27.77778</v>
+      </c>
+      <c r="M1">
+        <v>28.57142</v>
+      </c>
+      <c r="N1">
+        <v>13.854369999999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>